--- a/data/trans_camb/DC-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/DC-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-2.457000868887779</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>16.30248439275318</v>
+        <v>16.30248439275319</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.2518733757437108</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.697959378207861</v>
+        <v>-7.524243935335006</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.702331867731612</v>
+        <v>-9.879205491703246</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.654480332721916</v>
+        <v>1.633906658376087</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.6485328773365601</v>
+        <v>-0.5341582402237853</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.444767139576397</v>
+        <v>-7.189316986702036</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>12.0694993128689</v>
+        <v>11.9112490904443</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.922037893812484</v>
+        <v>-2.694047692369834</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-7.274807277005155</v>
+        <v>-7.166786933966806</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>8.659370864388013</v>
+        <v>8.083300045469603</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.0615110975439896</v>
+        <v>-0.1525055879553275</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.52375304458101</v>
+        <v>-2.548926985742765</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.624373327443973</v>
+        <v>9.916586986704026</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.964908496110942</v>
+        <v>8.412732984657129</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.947405901077066</v>
+        <v>1.974702311578538</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>20.51680702322366</v>
+        <v>20.04300158745446</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.28649104391058</v>
+        <v>3.37050709654254</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.493468295006736</v>
+        <v>-1.732704349045021</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.30508243653328</v>
+        <v>14.15372331412157</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.1136345229889096</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.753978177607744</v>
+        <v>0.7539781776077445</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.01339415273057787</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4131997033403165</v>
+        <v>-0.426612909403192</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5448540428250639</v>
+        <v>-0.547328824931736</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.09740175735751691</v>
+        <v>0.08000094492602243</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.02843586836298237</v>
+        <v>-0.02624990506084084</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2737103262986986</v>
+        <v>-0.2936134029929921</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.47412080177756</v>
+        <v>0.4900015830980577</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1448134225748928</v>
+        <v>-0.1322107004933462</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3553938475523481</v>
+        <v>-0.3567405154204997</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4234661401860379</v>
+        <v>0.4086078625880152</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.004615807821719419</v>
+        <v>-0.0100998681660407</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1686269437975977</v>
+        <v>-0.1659792437014259</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6920805280776761</v>
+        <v>0.695629096731031</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4615958430621324</v>
+        <v>0.4301919751290145</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1045729346498654</v>
+        <v>0.1064721784701602</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.060503285727142</v>
+        <v>1.036754693624104</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1854119122553171</v>
+        <v>0.1910413333369977</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.0846870929604381</v>
+        <v>-0.1001615155120804</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8373790417258292</v>
+        <v>0.8317234756590678</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-7.054714980542467</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>8.822584223284627</v>
+        <v>8.822584223284622</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.450273970865114</v>
+        <v>-6.209375106327599</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.652959904409634</v>
+        <v>-8.601754782304392</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5374334491097592</v>
+        <v>0.8930321963555591</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.587988188082516</v>
+        <v>-7.707279409241578</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-12.30607180616781</v>
+        <v>-12.32793826736756</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>8.883895563144034</v>
+        <v>9.470644964368692</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-5.848275293378579</v>
+        <v>-5.980525328557471</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-9.328514736503354</v>
+        <v>-9.651550103552974</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.143914274367706</v>
+        <v>6.067303110178313</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.2632515069302396</v>
+        <v>0.1779686059869558</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.636936834846789</v>
+        <v>-2.367607899460551</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.532422458476565</v>
+        <v>7.72442960393342</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1002417735239027</v>
+        <v>0.1836493858160668</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-4.860579782077354</v>
+        <v>-4.426614292438286</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>16.9158436983673</v>
+        <v>17.40140151333873</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.8896588159618432</v>
+        <v>-0.8722712766704218</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-4.57189787235599</v>
+        <v>-4.747718361436106</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>11.6392350822626</v>
+        <v>11.34853912581719</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.3479031304851634</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4350855674134854</v>
+        <v>0.4350855674134851</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3884926111466388</v>
+        <v>-0.375396773334312</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5308780412617701</v>
+        <v>-0.519288830947264</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.0268916608051083</v>
+        <v>0.05037049932587358</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2680416059746261</v>
+        <v>-0.2755019087262182</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4392547216006514</v>
+        <v>-0.4410751850193093</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3192146757973002</v>
+        <v>0.3403832766797154</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2715707771060393</v>
+        <v>-0.2760426220648429</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4369910143016898</v>
+        <v>-0.4462120344639451</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2830731000573396</v>
+        <v>0.2821356987944281</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.02160302358494668</v>
+        <v>0.01638600930522319</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2028317624261998</v>
+        <v>-0.1778217941609871</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5656570610915924</v>
+        <v>0.5842533739288187</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.004474144592102831</v>
+        <v>0.007127792838696155</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2051057128751373</v>
+        <v>-0.1807223343775253</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7070756249488624</v>
+        <v>0.7484233405266979</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.04469152398026486</v>
+        <v>-0.04803999859934931</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2413194031145821</v>
+        <v>-0.2458854601175487</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6141076057574083</v>
+        <v>0.6013901430693669</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-20.53411173841628</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>6.503877122343471</v>
+        <v>6.50387712234346</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-12.45146630193265</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-17.08786894128843</v>
+        <v>-17.43193748068926</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-16.83714348905899</v>
+        <v>-17.38569067335693</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.377969720671229</v>
+        <v>-2.326472187646805</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-16.67144953486979</v>
+        <v>-16.39065395888851</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-25.12843871378399</v>
+        <v>-24.88728259710395</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.863947334570593</v>
+        <v>1.548364227936156</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-15.5401487548228</v>
+        <v>-15.64530098689412</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-19.59227864487174</v>
+        <v>-19.43627387719402</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7389425061098627</v>
+        <v>0.6249221771276918</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-9.568839720079266</v>
+        <v>-9.327768267009041</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-9.075062414942831</v>
+        <v>-9.142035991472811</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.552801688321991</v>
+        <v>6.354112887152211</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-7.142489073552838</v>
+        <v>-7.105006380955634</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-16.45784399763534</v>
+        <v>-16.01845122863996</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>11.00893249803537</v>
+        <v>11.39059252851527</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-9.460889900391866</v>
+        <v>-9.392590699153086</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-13.91551636338072</v>
+        <v>-13.75891436601106</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.648523880030828</v>
+        <v>7.498665702701402</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.5861763227396594</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.18566270719144</v>
+        <v>0.1856627071914397</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.4415025254052656</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7286005146955211</v>
+        <v>-0.7299809205545762</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7177963131873165</v>
+        <v>-0.7203050959553035</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1025805044257223</v>
+        <v>-0.09872936461752531</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4404223128755613</v>
+        <v>-0.4313314857418988</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6668258900859593</v>
+        <v>-0.6648913160646661</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0495478173952931</v>
+        <v>0.0382201717181811</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5224848732160682</v>
+        <v>-0.5248488620692329</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.658348191885805</v>
+        <v>-0.6570412105382004</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.0233448426820561</v>
+        <v>0.02028600848463941</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.4994447737204568</v>
+        <v>-0.4915142507866008</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.4747855197619608</v>
+        <v>-0.4768406670441382</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3606239414741516</v>
+        <v>0.336895010009397</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.2166237619451354</v>
+        <v>-0.212032797498257</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.50466646241496</v>
+        <v>-0.4927934216920085</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3403740184169438</v>
+        <v>0.3456761681293644</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.3528165093988567</v>
+        <v>-0.3541960414692465</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.5213709561708441</v>
+        <v>-0.5170721781830752</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2890001503488701</v>
+        <v>0.2883697227474052</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-8.101752569780951</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.51503075591223</v>
+        <v>3.515030755912232</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-4.653009648628798</v>
@@ -1297,7 +1297,7 @@
         <v>-7.345694189946045</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>8.057203377556943</v>
+        <v>8.057203377556938</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-6.802132629942309</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-12.29386208681617</v>
+        <v>-11.97698783703938</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.21129237094694</v>
+        <v>-11.05804345031612</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.3405016029860125</v>
+        <v>-0.05923540527780184</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.792093085806128</v>
+        <v>-8.308530276419027</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-11.48101996388479</v>
+        <v>-11.34425359084296</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.478999887102493</v>
+        <v>4.357918598870274</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-9.337602234426425</v>
+        <v>-9.229654927579256</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-10.06523140887035</v>
+        <v>-10.27463725460348</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.075903540295847</v>
+        <v>3.472862757498746</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-5.829359311306717</v>
+        <v>-5.772718649931703</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-5.149683879651471</v>
+        <v>-4.531751128201467</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.161911222184712</v>
+        <v>7.188344855498871</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.9977160862379366</v>
+        <v>-0.3312169795286155</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-3.548029756441719</v>
+        <v>-3.093737881797801</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.9699579509742</v>
+        <v>11.9647124166061</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-4.078118899912343</v>
+        <v>-4.15105592446166</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-4.939456517775689</v>
+        <v>-5.096145278068052</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.59270144982732</v>
+        <v>8.926548866291768</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.4305566047399487</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1868015216197825</v>
+        <v>0.1868015216197827</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1597763870500282</v>
@@ -1402,7 +1402,7 @@
         <v>-0.2522385652885618</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2766705729425478</v>
+        <v>0.2766705729425477</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.2808454536412868</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6027345944989565</v>
+        <v>-0.5867981087258948</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5488045109875258</v>
+        <v>-0.544785944571894</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.01945331162305475</v>
+        <v>-0.003397937461437853</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2759830778335285</v>
+        <v>-0.2677593884968018</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3647055471993736</v>
+        <v>-0.3597074433408257</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1444762642410853</v>
+        <v>0.1388828408377066</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3690154349663446</v>
+        <v>-0.3677149505299994</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3937953231968606</v>
+        <v>-0.4066342530570907</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1190305295533152</v>
+        <v>0.1349719346574292</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.3434301969704956</v>
+        <v>-0.3280364523890291</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2918602114324528</v>
+        <v>-0.2689240506740435</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4288185436283089</v>
+        <v>0.4132228310589468</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.03384898419849445</v>
+        <v>-0.005797535561190255</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1278476629963114</v>
+        <v>-0.1086963938671168</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4439063315097788</v>
+        <v>0.4401357595451927</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1847814564521537</v>
+        <v>-0.1796383392611462</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2137105478261148</v>
+        <v>-0.2276372393257116</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.372973589522557</v>
+        <v>0.3896184335762142</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-8.74668258825022</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>7.581607385470305</v>
+        <v>7.581607385470293</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.811196017345695</v>
+        <v>-8.744992322661719</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.643786985946285</v>
+        <v>-9.729095140985129</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.788315239967711</v>
+        <v>1.972637451461936</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.962051817301654</v>
+        <v>-6.117382413531567</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-11.43799233125297</v>
+        <v>-11.59174476622671</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>8.802155864604238</v>
+        <v>8.698699506423445</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-6.923503518362446</v>
+        <v>-6.906184658016675</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-10.13807224077687</v>
+        <v>-10.01470498538617</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.065745690259326</v>
+        <v>6.162400892359519</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-5.464767750458675</v>
+        <v>-5.459635944153502</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-6.334922765548236</v>
+        <v>-6.430062522576777</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.711502379686655</v>
+        <v>5.919297247321068</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-2.025411250731</v>
+        <v>-1.92100876555956</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-7.463779136000966</v>
+        <v>-7.385493548163424</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>13.02498437629194</v>
+        <v>12.76461255091924</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-4.295704112568412</v>
+        <v>-4.227704104329398</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-7.357381569229762</v>
+        <v>-7.406845568813337</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>9.037809366919923</v>
+        <v>9.026938854136453</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.3406892328957377</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3914225553074514</v>
+        <v>0.3914225553074512</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.2438211075025837</v>
@@ -1625,7 +1625,7 @@
         <v>-0.3841782708122352</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3330049748506923</v>
+        <v>0.3330049748506918</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4785833146281317</v>
+        <v>-0.4708868111291492</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5267561442356955</v>
+        <v>-0.5273644106645429</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1007766087303676</v>
+        <v>0.105497566070118</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2070974947300515</v>
+        <v>-0.212764751244352</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3956077762046524</v>
+        <v>-0.4021671214261746</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3048767814529256</v>
+        <v>0.2988697157101902</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2978903148338863</v>
+        <v>-0.2974420882755473</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4301416400380695</v>
+        <v>-0.4276621827844961</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2574259058452115</v>
+        <v>0.2642030473892644</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.3316170233133319</v>
+        <v>-0.3244797567866202</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3853029419033466</v>
+        <v>-0.3865135453880747</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3440529836096179</v>
+        <v>0.3601589898020188</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.07656519868722002</v>
+        <v>-0.07150168555962598</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.2790051658375281</v>
+        <v>-0.274543439082097</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4905729443771289</v>
+        <v>0.4768547742591303</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.1943330837005847</v>
+        <v>-0.192509540272443</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.3316628295830993</v>
+        <v>-0.3354408538469193</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4117684511717784</v>
+        <v>0.4133457715495468</v>
       </c>
     </row>
     <row r="34">
